--- a/StreamLine Web Automator/output/data.xlsx
+++ b/StreamLine Web Automator/output/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation\StreamLine Web Automator\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\StreamLine Web Automator\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB093E72-C2E7-49EB-A98F-1061CCF2666F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974C851-8641-49AC-966B-41C7E2B7BD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date and Time</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Ada Errors</t>
-  </si>
-  <si>
-    <t>Number of Occurrences</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bug ID</t>
-  </si>
-  <si>
-    <t>New Bugs</t>
   </si>
   <si>
     <t>Browser</t>
@@ -434,61 +425,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4B4449-807F-445B-82C8-F655B57CA753}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
